--- a/src/main/resources/RegisterDataTestData.xlsx
+++ b/src/main/resources/RegisterDataTestData.xlsx
@@ -97,21 +97,12 @@
     <t>Cricket,Movies</t>
   </si>
   <si>
-    <t>Reading,Music</t>
-  </si>
-  <si>
     <t>English,Spanish</t>
   </si>
   <si>
-    <t>Hindi,English</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -146,6 +137,15 @@
   </si>
   <si>
     <t>FeMale</t>
+  </si>
+  <si>
+    <t>Cricket,Movies,Hockey</t>
+  </si>
+  <si>
+    <t>Danish,English,German,Finnish,Dutch</t>
+  </si>
+  <si>
+    <t>APIs</t>
   </si>
 </sst>
 </file>
@@ -204,10 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +509,14 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -581,28 +588,28 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -622,37 +629,38 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>